--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Hp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Hp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC5EBD-5D49-42FC-BB85-1D201F71FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4324176-1CBB-4DB4-9A40-1763131F4F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>建檔日期時間</t>
@@ -1081,6 +1078,9 @@
 11:車子
 12:銀行保證</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1539,11 +1539,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1552,9 +1552,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,7 +1561,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,7 +1588,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1607,28 +1604,28 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1645,61 +1642,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1716,15 +1711,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1786,9 +1774,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1826,9 +1814,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1861,26 +1849,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1913,26 +1884,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2108,945 +2062,945 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22" style="5" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.5546875" style="73" customWidth="1"/>
-    <col min="9" max="16384" width="72.88671875" style="4"/>
+    <col min="8" max="8" width="54.5546875" style="67" customWidth="1"/>
+    <col min="9" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="23" t="s">
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13">
+        <v>8</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>8</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="13">
+        <v>8</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="13">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="11" t="s">
+      <c r="C18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>11</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>12</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>13</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>14</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13">
+        <v>10</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>15</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>16</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>17</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="243" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="B27" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>20</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="B28" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13">
+        <v>10</v>
+      </c>
+      <c r="F28" s="13">
+        <v>8</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
         <v>21</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="B29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="13">
+        <v>16</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>22</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="B30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="13">
+        <v>16</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <v>23</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+      <c r="B31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
         <v>24</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+      <c r="B32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="13">
+        <v>6</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="64"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
         <v>25</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
         <v>26</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="13">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="14">
-        <v>6</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>2</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="14">
-        <v>7</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>3</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="14">
-        <v>10</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="14">
-        <v>3</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>5</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="14">
-        <v>7</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="70" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>6</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>7</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="14">
-        <v>8</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>8</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="14">
-        <v>8</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>9</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="14">
-        <v>16</v>
-      </c>
-      <c r="F17" s="14">
-        <v>2</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>10</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="63">
-        <v>2</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>11</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="14">
-        <v>16</v>
-      </c>
-      <c r="F19" s="14">
-        <v>2</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>12</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="63">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>13</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="63">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>14</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="63">
-        <v>10</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>15</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>16</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>17</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>18</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="243" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>19</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="14">
-        <v>2</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
-        <v>20</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="14">
-        <v>10</v>
-      </c>
-      <c r="F28" s="14">
-        <v>8</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
-        <v>21</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="14">
-        <v>16</v>
-      </c>
-      <c r="F29" s="14">
-        <v>2</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
-        <v>22</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="14">
-        <v>16</v>
-      </c>
-      <c r="F30" s="14">
-        <v>2</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
-        <v>23</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="70"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
-        <v>24</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="14">
-        <v>6</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="70"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
-        <v>25</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="70"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
-        <v>26</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="14">
-        <v>6</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="70"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="71"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="71"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="72"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="66"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="72"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="66"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="72"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="66"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="72"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="72"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="66"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="72"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="72"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="66"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="72"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="66"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="72"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="66"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="72"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="72"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="66"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="72"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="72"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="72"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="72"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="66"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="72"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="66"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="72"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="66"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="72"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="66"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="72"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3082,13 +3036,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3109,32 +3063,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="26.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>131</v>
+      <c r="C2" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3153,58 +3107,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="151.21875" style="65" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="65"/>
+    <col min="1" max="1" width="151.21875" style="59" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="68.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+    <row r="3" spans="1:1" ht="114" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="60" customFormat="1" ht="102.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="60" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="114" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="66" customFormat="1" ht="102.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="66" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="66" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-    </row>
-    <row r="7" spans="1:1" s="66" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-    </row>
-    <row r="8" spans="1:1" s="66" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+    <row r="6" spans="1:1" s="60" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+    </row>
+    <row r="7" spans="1:1" s="60" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+    </row>
+    <row r="8" spans="1:1" s="60" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="A9" s="61"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
+      <c r="A10" s="61"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
+      <c r="A11" s="61"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
+      <c r="A13" s="61"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
+      <c r="A14" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -3223,50 +3177,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="151.21875" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="151.21875" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="194.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>136</v>
+      <c r="A1" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="37"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -3284,18 +3238,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.88671875" style="69" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="68"/>
+    <col min="1" max="1" width="113.88671875" style="63" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="239.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3306,7 +3260,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -3314,833 +3268,704 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="22" style="41" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="256" width="8.88671875" style="41"/>
-    <col min="257" max="257" width="4.44140625" style="41" customWidth="1"/>
-    <col min="258" max="258" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="35.88671875" style="41" customWidth="1"/>
-    <col min="260" max="260" width="22" style="41" customWidth="1"/>
-    <col min="261" max="261" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="262" max="512" width="8.88671875" style="41"/>
-    <col min="513" max="513" width="4.44140625" style="41" customWidth="1"/>
-    <col min="514" max="514" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="35.88671875" style="41" customWidth="1"/>
-    <col min="516" max="516" width="22" style="41" customWidth="1"/>
-    <col min="517" max="517" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="518" max="768" width="8.88671875" style="41"/>
-    <col min="769" max="769" width="4.44140625" style="41" customWidth="1"/>
-    <col min="770" max="770" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="35.88671875" style="41" customWidth="1"/>
-    <col min="772" max="772" width="22" style="41" customWidth="1"/>
-    <col min="773" max="773" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="774" max="1024" width="8.88671875" style="41"/>
-    <col min="1025" max="1025" width="4.44140625" style="41" customWidth="1"/>
-    <col min="1026" max="1026" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="35.88671875" style="41" customWidth="1"/>
-    <col min="1028" max="1028" width="22" style="41" customWidth="1"/>
-    <col min="1029" max="1029" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1280" width="8.88671875" style="41"/>
-    <col min="1281" max="1281" width="4.44140625" style="41" customWidth="1"/>
-    <col min="1282" max="1282" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="35.88671875" style="41" customWidth="1"/>
-    <col min="1284" max="1284" width="22" style="41" customWidth="1"/>
-    <col min="1285" max="1285" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1536" width="8.88671875" style="41"/>
-    <col min="1537" max="1537" width="4.44140625" style="41" customWidth="1"/>
-    <col min="1538" max="1538" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="35.88671875" style="41" customWidth="1"/>
-    <col min="1540" max="1540" width="22" style="41" customWidth="1"/>
-    <col min="1541" max="1541" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1792" width="8.88671875" style="41"/>
-    <col min="1793" max="1793" width="4.44140625" style="41" customWidth="1"/>
-    <col min="1794" max="1794" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="35.88671875" style="41" customWidth="1"/>
-    <col min="1796" max="1796" width="22" style="41" customWidth="1"/>
-    <col min="1797" max="1797" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2048" width="8.88671875" style="41"/>
-    <col min="2049" max="2049" width="4.44140625" style="41" customWidth="1"/>
-    <col min="2050" max="2050" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="35.88671875" style="41" customWidth="1"/>
-    <col min="2052" max="2052" width="22" style="41" customWidth="1"/>
-    <col min="2053" max="2053" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2304" width="8.88671875" style="41"/>
-    <col min="2305" max="2305" width="4.44140625" style="41" customWidth="1"/>
-    <col min="2306" max="2306" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="35.88671875" style="41" customWidth="1"/>
-    <col min="2308" max="2308" width="22" style="41" customWidth="1"/>
-    <col min="2309" max="2309" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2560" width="8.88671875" style="41"/>
-    <col min="2561" max="2561" width="4.44140625" style="41" customWidth="1"/>
-    <col min="2562" max="2562" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="35.88671875" style="41" customWidth="1"/>
-    <col min="2564" max="2564" width="22" style="41" customWidth="1"/>
-    <col min="2565" max="2565" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2816" width="8.88671875" style="41"/>
-    <col min="2817" max="2817" width="4.44140625" style="41" customWidth="1"/>
-    <col min="2818" max="2818" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="35.88671875" style="41" customWidth="1"/>
-    <col min="2820" max="2820" width="22" style="41" customWidth="1"/>
-    <col min="2821" max="2821" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3072" width="8.88671875" style="41"/>
-    <col min="3073" max="3073" width="4.44140625" style="41" customWidth="1"/>
-    <col min="3074" max="3074" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="35.88671875" style="41" customWidth="1"/>
-    <col min="3076" max="3076" width="22" style="41" customWidth="1"/>
-    <col min="3077" max="3077" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3328" width="8.88671875" style="41"/>
-    <col min="3329" max="3329" width="4.44140625" style="41" customWidth="1"/>
-    <col min="3330" max="3330" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="35.88671875" style="41" customWidth="1"/>
-    <col min="3332" max="3332" width="22" style="41" customWidth="1"/>
-    <col min="3333" max="3333" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3584" width="8.88671875" style="41"/>
-    <col min="3585" max="3585" width="4.44140625" style="41" customWidth="1"/>
-    <col min="3586" max="3586" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="35.88671875" style="41" customWidth="1"/>
-    <col min="3588" max="3588" width="22" style="41" customWidth="1"/>
-    <col min="3589" max="3589" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3840" width="8.88671875" style="41"/>
-    <col min="3841" max="3841" width="4.44140625" style="41" customWidth="1"/>
-    <col min="3842" max="3842" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="35.88671875" style="41" customWidth="1"/>
-    <col min="3844" max="3844" width="22" style="41" customWidth="1"/>
-    <col min="3845" max="3845" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4096" width="8.88671875" style="41"/>
-    <col min="4097" max="4097" width="4.44140625" style="41" customWidth="1"/>
-    <col min="4098" max="4098" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="35.88671875" style="41" customWidth="1"/>
-    <col min="4100" max="4100" width="22" style="41" customWidth="1"/>
-    <col min="4101" max="4101" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4352" width="8.88671875" style="41"/>
-    <col min="4353" max="4353" width="4.44140625" style="41" customWidth="1"/>
-    <col min="4354" max="4354" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="35.88671875" style="41" customWidth="1"/>
-    <col min="4356" max="4356" width="22" style="41" customWidth="1"/>
-    <col min="4357" max="4357" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4608" width="8.88671875" style="41"/>
-    <col min="4609" max="4609" width="4.44140625" style="41" customWidth="1"/>
-    <col min="4610" max="4610" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="35.88671875" style="41" customWidth="1"/>
-    <col min="4612" max="4612" width="22" style="41" customWidth="1"/>
-    <col min="4613" max="4613" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4864" width="8.88671875" style="41"/>
-    <col min="4865" max="4865" width="4.44140625" style="41" customWidth="1"/>
-    <col min="4866" max="4866" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="35.88671875" style="41" customWidth="1"/>
-    <col min="4868" max="4868" width="22" style="41" customWidth="1"/>
-    <col min="4869" max="4869" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5120" width="8.88671875" style="41"/>
-    <col min="5121" max="5121" width="4.44140625" style="41" customWidth="1"/>
-    <col min="5122" max="5122" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="35.88671875" style="41" customWidth="1"/>
-    <col min="5124" max="5124" width="22" style="41" customWidth="1"/>
-    <col min="5125" max="5125" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5376" width="8.88671875" style="41"/>
-    <col min="5377" max="5377" width="4.44140625" style="41" customWidth="1"/>
-    <col min="5378" max="5378" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="35.88671875" style="41" customWidth="1"/>
-    <col min="5380" max="5380" width="22" style="41" customWidth="1"/>
-    <col min="5381" max="5381" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5632" width="8.88671875" style="41"/>
-    <col min="5633" max="5633" width="4.44140625" style="41" customWidth="1"/>
-    <col min="5634" max="5634" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="35.88671875" style="41" customWidth="1"/>
-    <col min="5636" max="5636" width="22" style="41" customWidth="1"/>
-    <col min="5637" max="5637" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5888" width="8.88671875" style="41"/>
-    <col min="5889" max="5889" width="4.44140625" style="41" customWidth="1"/>
-    <col min="5890" max="5890" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="35.88671875" style="41" customWidth="1"/>
-    <col min="5892" max="5892" width="22" style="41" customWidth="1"/>
-    <col min="5893" max="5893" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6144" width="8.88671875" style="41"/>
-    <col min="6145" max="6145" width="4.44140625" style="41" customWidth="1"/>
-    <col min="6146" max="6146" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="35.88671875" style="41" customWidth="1"/>
-    <col min="6148" max="6148" width="22" style="41" customWidth="1"/>
-    <col min="6149" max="6149" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6400" width="8.88671875" style="41"/>
-    <col min="6401" max="6401" width="4.44140625" style="41" customWidth="1"/>
-    <col min="6402" max="6402" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="35.88671875" style="41" customWidth="1"/>
-    <col min="6404" max="6404" width="22" style="41" customWidth="1"/>
-    <col min="6405" max="6405" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6656" width="8.88671875" style="41"/>
-    <col min="6657" max="6657" width="4.44140625" style="41" customWidth="1"/>
-    <col min="6658" max="6658" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="35.88671875" style="41" customWidth="1"/>
-    <col min="6660" max="6660" width="22" style="41" customWidth="1"/>
-    <col min="6661" max="6661" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6912" width="8.88671875" style="41"/>
-    <col min="6913" max="6913" width="4.44140625" style="41" customWidth="1"/>
-    <col min="6914" max="6914" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="35.88671875" style="41" customWidth="1"/>
-    <col min="6916" max="6916" width="22" style="41" customWidth="1"/>
-    <col min="6917" max="6917" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7168" width="8.88671875" style="41"/>
-    <col min="7169" max="7169" width="4.44140625" style="41" customWidth="1"/>
-    <col min="7170" max="7170" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="35.88671875" style="41" customWidth="1"/>
-    <col min="7172" max="7172" width="22" style="41" customWidth="1"/>
-    <col min="7173" max="7173" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7424" width="8.88671875" style="41"/>
-    <col min="7425" max="7425" width="4.44140625" style="41" customWidth="1"/>
-    <col min="7426" max="7426" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="35.88671875" style="41" customWidth="1"/>
-    <col min="7428" max="7428" width="22" style="41" customWidth="1"/>
-    <col min="7429" max="7429" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7680" width="8.88671875" style="41"/>
-    <col min="7681" max="7681" width="4.44140625" style="41" customWidth="1"/>
-    <col min="7682" max="7682" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="35.88671875" style="41" customWidth="1"/>
-    <col min="7684" max="7684" width="22" style="41" customWidth="1"/>
-    <col min="7685" max="7685" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7936" width="8.88671875" style="41"/>
-    <col min="7937" max="7937" width="4.44140625" style="41" customWidth="1"/>
-    <col min="7938" max="7938" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="35.88671875" style="41" customWidth="1"/>
-    <col min="7940" max="7940" width="22" style="41" customWidth="1"/>
-    <col min="7941" max="7941" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8192" width="8.88671875" style="41"/>
-    <col min="8193" max="8193" width="4.44140625" style="41" customWidth="1"/>
-    <col min="8194" max="8194" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="35.88671875" style="41" customWidth="1"/>
-    <col min="8196" max="8196" width="22" style="41" customWidth="1"/>
-    <col min="8197" max="8197" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8448" width="8.88671875" style="41"/>
-    <col min="8449" max="8449" width="4.44140625" style="41" customWidth="1"/>
-    <col min="8450" max="8450" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="35.88671875" style="41" customWidth="1"/>
-    <col min="8452" max="8452" width="22" style="41" customWidth="1"/>
-    <col min="8453" max="8453" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8704" width="8.88671875" style="41"/>
-    <col min="8705" max="8705" width="4.44140625" style="41" customWidth="1"/>
-    <col min="8706" max="8706" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="35.88671875" style="41" customWidth="1"/>
-    <col min="8708" max="8708" width="22" style="41" customWidth="1"/>
-    <col min="8709" max="8709" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8960" width="8.88671875" style="41"/>
-    <col min="8961" max="8961" width="4.44140625" style="41" customWidth="1"/>
-    <col min="8962" max="8962" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="35.88671875" style="41" customWidth="1"/>
-    <col min="8964" max="8964" width="22" style="41" customWidth="1"/>
-    <col min="8965" max="8965" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9216" width="8.88671875" style="41"/>
-    <col min="9217" max="9217" width="4.44140625" style="41" customWidth="1"/>
-    <col min="9218" max="9218" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="35.88671875" style="41" customWidth="1"/>
-    <col min="9220" max="9220" width="22" style="41" customWidth="1"/>
-    <col min="9221" max="9221" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9472" width="8.88671875" style="41"/>
-    <col min="9473" max="9473" width="4.44140625" style="41" customWidth="1"/>
-    <col min="9474" max="9474" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="35.88671875" style="41" customWidth="1"/>
-    <col min="9476" max="9476" width="22" style="41" customWidth="1"/>
-    <col min="9477" max="9477" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9728" width="8.88671875" style="41"/>
-    <col min="9729" max="9729" width="4.44140625" style="41" customWidth="1"/>
-    <col min="9730" max="9730" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="35.88671875" style="41" customWidth="1"/>
-    <col min="9732" max="9732" width="22" style="41" customWidth="1"/>
-    <col min="9733" max="9733" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9984" width="8.88671875" style="41"/>
-    <col min="9985" max="9985" width="4.44140625" style="41" customWidth="1"/>
-    <col min="9986" max="9986" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="35.88671875" style="41" customWidth="1"/>
-    <col min="9988" max="9988" width="22" style="41" customWidth="1"/>
-    <col min="9989" max="9989" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10240" width="8.88671875" style="41"/>
-    <col min="10241" max="10241" width="4.44140625" style="41" customWidth="1"/>
-    <col min="10242" max="10242" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="35.88671875" style="41" customWidth="1"/>
-    <col min="10244" max="10244" width="22" style="41" customWidth="1"/>
-    <col min="10245" max="10245" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10496" width="8.88671875" style="41"/>
-    <col min="10497" max="10497" width="4.44140625" style="41" customWidth="1"/>
-    <col min="10498" max="10498" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="35.88671875" style="41" customWidth="1"/>
-    <col min="10500" max="10500" width="22" style="41" customWidth="1"/>
-    <col min="10501" max="10501" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10752" width="8.88671875" style="41"/>
-    <col min="10753" max="10753" width="4.44140625" style="41" customWidth="1"/>
-    <col min="10754" max="10754" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="35.88671875" style="41" customWidth="1"/>
-    <col min="10756" max="10756" width="22" style="41" customWidth="1"/>
-    <col min="10757" max="10757" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11008" width="8.88671875" style="41"/>
-    <col min="11009" max="11009" width="4.44140625" style="41" customWidth="1"/>
-    <col min="11010" max="11010" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="35.88671875" style="41" customWidth="1"/>
-    <col min="11012" max="11012" width="22" style="41" customWidth="1"/>
-    <col min="11013" max="11013" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11264" width="8.88671875" style="41"/>
-    <col min="11265" max="11265" width="4.44140625" style="41" customWidth="1"/>
-    <col min="11266" max="11266" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="35.88671875" style="41" customWidth="1"/>
-    <col min="11268" max="11268" width="22" style="41" customWidth="1"/>
-    <col min="11269" max="11269" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11520" width="8.88671875" style="41"/>
-    <col min="11521" max="11521" width="4.44140625" style="41" customWidth="1"/>
-    <col min="11522" max="11522" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="35.88671875" style="41" customWidth="1"/>
-    <col min="11524" max="11524" width="22" style="41" customWidth="1"/>
-    <col min="11525" max="11525" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11776" width="8.88671875" style="41"/>
-    <col min="11777" max="11777" width="4.44140625" style="41" customWidth="1"/>
-    <col min="11778" max="11778" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="35.88671875" style="41" customWidth="1"/>
-    <col min="11780" max="11780" width="22" style="41" customWidth="1"/>
-    <col min="11781" max="11781" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12032" width="8.88671875" style="41"/>
-    <col min="12033" max="12033" width="4.44140625" style="41" customWidth="1"/>
-    <col min="12034" max="12034" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="35.88671875" style="41" customWidth="1"/>
-    <col min="12036" max="12036" width="22" style="41" customWidth="1"/>
-    <col min="12037" max="12037" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12288" width="8.88671875" style="41"/>
-    <col min="12289" max="12289" width="4.44140625" style="41" customWidth="1"/>
-    <col min="12290" max="12290" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="35.88671875" style="41" customWidth="1"/>
-    <col min="12292" max="12292" width="22" style="41" customWidth="1"/>
-    <col min="12293" max="12293" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12544" width="8.88671875" style="41"/>
-    <col min="12545" max="12545" width="4.44140625" style="41" customWidth="1"/>
-    <col min="12546" max="12546" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="35.88671875" style="41" customWidth="1"/>
-    <col min="12548" max="12548" width="22" style="41" customWidth="1"/>
-    <col min="12549" max="12549" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12800" width="8.88671875" style="41"/>
-    <col min="12801" max="12801" width="4.44140625" style="41" customWidth="1"/>
-    <col min="12802" max="12802" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="35.88671875" style="41" customWidth="1"/>
-    <col min="12804" max="12804" width="22" style="41" customWidth="1"/>
-    <col min="12805" max="12805" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13056" width="8.88671875" style="41"/>
-    <col min="13057" max="13057" width="4.44140625" style="41" customWidth="1"/>
-    <col min="13058" max="13058" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="35.88671875" style="41" customWidth="1"/>
-    <col min="13060" max="13060" width="22" style="41" customWidth="1"/>
-    <col min="13061" max="13061" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13312" width="8.88671875" style="41"/>
-    <col min="13313" max="13313" width="4.44140625" style="41" customWidth="1"/>
-    <col min="13314" max="13314" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="35.88671875" style="41" customWidth="1"/>
-    <col min="13316" max="13316" width="22" style="41" customWidth="1"/>
-    <col min="13317" max="13317" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13568" width="8.88671875" style="41"/>
-    <col min="13569" max="13569" width="4.44140625" style="41" customWidth="1"/>
-    <col min="13570" max="13570" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="35.88671875" style="41" customWidth="1"/>
-    <col min="13572" max="13572" width="22" style="41" customWidth="1"/>
-    <col min="13573" max="13573" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13824" width="8.88671875" style="41"/>
-    <col min="13825" max="13825" width="4.44140625" style="41" customWidth="1"/>
-    <col min="13826" max="13826" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="35.88671875" style="41" customWidth="1"/>
-    <col min="13828" max="13828" width="22" style="41" customWidth="1"/>
-    <col min="13829" max="13829" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14080" width="8.88671875" style="41"/>
-    <col min="14081" max="14081" width="4.44140625" style="41" customWidth="1"/>
-    <col min="14082" max="14082" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="35.88671875" style="41" customWidth="1"/>
-    <col min="14084" max="14084" width="22" style="41" customWidth="1"/>
-    <col min="14085" max="14085" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14336" width="8.88671875" style="41"/>
-    <col min="14337" max="14337" width="4.44140625" style="41" customWidth="1"/>
-    <col min="14338" max="14338" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="35.88671875" style="41" customWidth="1"/>
-    <col min="14340" max="14340" width="22" style="41" customWidth="1"/>
-    <col min="14341" max="14341" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14592" width="8.88671875" style="41"/>
-    <col min="14593" max="14593" width="4.44140625" style="41" customWidth="1"/>
-    <col min="14594" max="14594" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="35.88671875" style="41" customWidth="1"/>
-    <col min="14596" max="14596" width="22" style="41" customWidth="1"/>
-    <col min="14597" max="14597" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14848" width="8.88671875" style="41"/>
-    <col min="14849" max="14849" width="4.44140625" style="41" customWidth="1"/>
-    <col min="14850" max="14850" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="35.88671875" style="41" customWidth="1"/>
-    <col min="14852" max="14852" width="22" style="41" customWidth="1"/>
-    <col min="14853" max="14853" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15104" width="8.88671875" style="41"/>
-    <col min="15105" max="15105" width="4.44140625" style="41" customWidth="1"/>
-    <col min="15106" max="15106" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="35.88671875" style="41" customWidth="1"/>
-    <col min="15108" max="15108" width="22" style="41" customWidth="1"/>
-    <col min="15109" max="15109" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15360" width="8.88671875" style="41"/>
-    <col min="15361" max="15361" width="4.44140625" style="41" customWidth="1"/>
-    <col min="15362" max="15362" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="35.88671875" style="41" customWidth="1"/>
-    <col min="15364" max="15364" width="22" style="41" customWidth="1"/>
-    <col min="15365" max="15365" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15616" width="8.88671875" style="41"/>
-    <col min="15617" max="15617" width="4.44140625" style="41" customWidth="1"/>
-    <col min="15618" max="15618" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="35.88671875" style="41" customWidth="1"/>
-    <col min="15620" max="15620" width="22" style="41" customWidth="1"/>
-    <col min="15621" max="15621" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15872" width="8.88671875" style="41"/>
-    <col min="15873" max="15873" width="4.44140625" style="41" customWidth="1"/>
-    <col min="15874" max="15874" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="35.88671875" style="41" customWidth="1"/>
-    <col min="15876" max="15876" width="22" style="41" customWidth="1"/>
-    <col min="15877" max="15877" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16128" width="8.88671875" style="41"/>
-    <col min="16129" max="16129" width="4.44140625" style="41" customWidth="1"/>
-    <col min="16130" max="16130" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="35.88671875" style="41" customWidth="1"/>
-    <col min="16132" max="16132" width="22" style="41" customWidth="1"/>
-    <col min="16133" max="16133" width="53.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="8.88671875" style="41"/>
+    <col min="1" max="1" width="4.44140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22" style="39" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="256" width="8.88671875" style="39"/>
+    <col min="257" max="257" width="4.44140625" style="39" customWidth="1"/>
+    <col min="258" max="258" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="35.88671875" style="39" customWidth="1"/>
+    <col min="260" max="260" width="22" style="39" customWidth="1"/>
+    <col min="261" max="261" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="262" max="512" width="8.88671875" style="39"/>
+    <col min="513" max="513" width="4.44140625" style="39" customWidth="1"/>
+    <col min="514" max="514" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="35.88671875" style="39" customWidth="1"/>
+    <col min="516" max="516" width="22" style="39" customWidth="1"/>
+    <col min="517" max="517" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="518" max="768" width="8.88671875" style="39"/>
+    <col min="769" max="769" width="4.44140625" style="39" customWidth="1"/>
+    <col min="770" max="770" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="35.88671875" style="39" customWidth="1"/>
+    <col min="772" max="772" width="22" style="39" customWidth="1"/>
+    <col min="773" max="773" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="774" max="1024" width="8.88671875" style="39"/>
+    <col min="1025" max="1025" width="4.44140625" style="39" customWidth="1"/>
+    <col min="1026" max="1026" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="35.88671875" style="39" customWidth="1"/>
+    <col min="1028" max="1028" width="22" style="39" customWidth="1"/>
+    <col min="1029" max="1029" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1280" width="8.88671875" style="39"/>
+    <col min="1281" max="1281" width="4.44140625" style="39" customWidth="1"/>
+    <col min="1282" max="1282" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="35.88671875" style="39" customWidth="1"/>
+    <col min="1284" max="1284" width="22" style="39" customWidth="1"/>
+    <col min="1285" max="1285" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1536" width="8.88671875" style="39"/>
+    <col min="1537" max="1537" width="4.44140625" style="39" customWidth="1"/>
+    <col min="1538" max="1538" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="35.88671875" style="39" customWidth="1"/>
+    <col min="1540" max="1540" width="22" style="39" customWidth="1"/>
+    <col min="1541" max="1541" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1792" width="8.88671875" style="39"/>
+    <col min="1793" max="1793" width="4.44140625" style="39" customWidth="1"/>
+    <col min="1794" max="1794" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="35.88671875" style="39" customWidth="1"/>
+    <col min="1796" max="1796" width="22" style="39" customWidth="1"/>
+    <col min="1797" max="1797" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2048" width="8.88671875" style="39"/>
+    <col min="2049" max="2049" width="4.44140625" style="39" customWidth="1"/>
+    <col min="2050" max="2050" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="35.88671875" style="39" customWidth="1"/>
+    <col min="2052" max="2052" width="22" style="39" customWidth="1"/>
+    <col min="2053" max="2053" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2304" width="8.88671875" style="39"/>
+    <col min="2305" max="2305" width="4.44140625" style="39" customWidth="1"/>
+    <col min="2306" max="2306" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="35.88671875" style="39" customWidth="1"/>
+    <col min="2308" max="2308" width="22" style="39" customWidth="1"/>
+    <col min="2309" max="2309" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2560" width="8.88671875" style="39"/>
+    <col min="2561" max="2561" width="4.44140625" style="39" customWidth="1"/>
+    <col min="2562" max="2562" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="35.88671875" style="39" customWidth="1"/>
+    <col min="2564" max="2564" width="22" style="39" customWidth="1"/>
+    <col min="2565" max="2565" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2816" width="8.88671875" style="39"/>
+    <col min="2817" max="2817" width="4.44140625" style="39" customWidth="1"/>
+    <col min="2818" max="2818" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="35.88671875" style="39" customWidth="1"/>
+    <col min="2820" max="2820" width="22" style="39" customWidth="1"/>
+    <col min="2821" max="2821" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3072" width="8.88671875" style="39"/>
+    <col min="3073" max="3073" width="4.44140625" style="39" customWidth="1"/>
+    <col min="3074" max="3074" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="35.88671875" style="39" customWidth="1"/>
+    <col min="3076" max="3076" width="22" style="39" customWidth="1"/>
+    <col min="3077" max="3077" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3328" width="8.88671875" style="39"/>
+    <col min="3329" max="3329" width="4.44140625" style="39" customWidth="1"/>
+    <col min="3330" max="3330" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="35.88671875" style="39" customWidth="1"/>
+    <col min="3332" max="3332" width="22" style="39" customWidth="1"/>
+    <col min="3333" max="3333" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3584" width="8.88671875" style="39"/>
+    <col min="3585" max="3585" width="4.44140625" style="39" customWidth="1"/>
+    <col min="3586" max="3586" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="35.88671875" style="39" customWidth="1"/>
+    <col min="3588" max="3588" width="22" style="39" customWidth="1"/>
+    <col min="3589" max="3589" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3840" width="8.88671875" style="39"/>
+    <col min="3841" max="3841" width="4.44140625" style="39" customWidth="1"/>
+    <col min="3842" max="3842" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="35.88671875" style="39" customWidth="1"/>
+    <col min="3844" max="3844" width="22" style="39" customWidth="1"/>
+    <col min="3845" max="3845" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4096" width="8.88671875" style="39"/>
+    <col min="4097" max="4097" width="4.44140625" style="39" customWidth="1"/>
+    <col min="4098" max="4098" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="35.88671875" style="39" customWidth="1"/>
+    <col min="4100" max="4100" width="22" style="39" customWidth="1"/>
+    <col min="4101" max="4101" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4352" width="8.88671875" style="39"/>
+    <col min="4353" max="4353" width="4.44140625" style="39" customWidth="1"/>
+    <col min="4354" max="4354" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="35.88671875" style="39" customWidth="1"/>
+    <col min="4356" max="4356" width="22" style="39" customWidth="1"/>
+    <col min="4357" max="4357" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4608" width="8.88671875" style="39"/>
+    <col min="4609" max="4609" width="4.44140625" style="39" customWidth="1"/>
+    <col min="4610" max="4610" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="35.88671875" style="39" customWidth="1"/>
+    <col min="4612" max="4612" width="22" style="39" customWidth="1"/>
+    <col min="4613" max="4613" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4864" width="8.88671875" style="39"/>
+    <col min="4865" max="4865" width="4.44140625" style="39" customWidth="1"/>
+    <col min="4866" max="4866" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="35.88671875" style="39" customWidth="1"/>
+    <col min="4868" max="4868" width="22" style="39" customWidth="1"/>
+    <col min="4869" max="4869" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5120" width="8.88671875" style="39"/>
+    <col min="5121" max="5121" width="4.44140625" style="39" customWidth="1"/>
+    <col min="5122" max="5122" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="35.88671875" style="39" customWidth="1"/>
+    <col min="5124" max="5124" width="22" style="39" customWidth="1"/>
+    <col min="5125" max="5125" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5376" width="8.88671875" style="39"/>
+    <col min="5377" max="5377" width="4.44140625" style="39" customWidth="1"/>
+    <col min="5378" max="5378" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="35.88671875" style="39" customWidth="1"/>
+    <col min="5380" max="5380" width="22" style="39" customWidth="1"/>
+    <col min="5381" max="5381" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5632" width="8.88671875" style="39"/>
+    <col min="5633" max="5633" width="4.44140625" style="39" customWidth="1"/>
+    <col min="5634" max="5634" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="35.88671875" style="39" customWidth="1"/>
+    <col min="5636" max="5636" width="22" style="39" customWidth="1"/>
+    <col min="5637" max="5637" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5888" width="8.88671875" style="39"/>
+    <col min="5889" max="5889" width="4.44140625" style="39" customWidth="1"/>
+    <col min="5890" max="5890" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="35.88671875" style="39" customWidth="1"/>
+    <col min="5892" max="5892" width="22" style="39" customWidth="1"/>
+    <col min="5893" max="5893" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6144" width="8.88671875" style="39"/>
+    <col min="6145" max="6145" width="4.44140625" style="39" customWidth="1"/>
+    <col min="6146" max="6146" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="35.88671875" style="39" customWidth="1"/>
+    <col min="6148" max="6148" width="22" style="39" customWidth="1"/>
+    <col min="6149" max="6149" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6400" width="8.88671875" style="39"/>
+    <col min="6401" max="6401" width="4.44140625" style="39" customWidth="1"/>
+    <col min="6402" max="6402" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="35.88671875" style="39" customWidth="1"/>
+    <col min="6404" max="6404" width="22" style="39" customWidth="1"/>
+    <col min="6405" max="6405" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6656" width="8.88671875" style="39"/>
+    <col min="6657" max="6657" width="4.44140625" style="39" customWidth="1"/>
+    <col min="6658" max="6658" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="35.88671875" style="39" customWidth="1"/>
+    <col min="6660" max="6660" width="22" style="39" customWidth="1"/>
+    <col min="6661" max="6661" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6912" width="8.88671875" style="39"/>
+    <col min="6913" max="6913" width="4.44140625" style="39" customWidth="1"/>
+    <col min="6914" max="6914" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="35.88671875" style="39" customWidth="1"/>
+    <col min="6916" max="6916" width="22" style="39" customWidth="1"/>
+    <col min="6917" max="6917" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7168" width="8.88671875" style="39"/>
+    <col min="7169" max="7169" width="4.44140625" style="39" customWidth="1"/>
+    <col min="7170" max="7170" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="35.88671875" style="39" customWidth="1"/>
+    <col min="7172" max="7172" width="22" style="39" customWidth="1"/>
+    <col min="7173" max="7173" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7424" width="8.88671875" style="39"/>
+    <col min="7425" max="7425" width="4.44140625" style="39" customWidth="1"/>
+    <col min="7426" max="7426" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="35.88671875" style="39" customWidth="1"/>
+    <col min="7428" max="7428" width="22" style="39" customWidth="1"/>
+    <col min="7429" max="7429" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7680" width="8.88671875" style="39"/>
+    <col min="7681" max="7681" width="4.44140625" style="39" customWidth="1"/>
+    <col min="7682" max="7682" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="35.88671875" style="39" customWidth="1"/>
+    <col min="7684" max="7684" width="22" style="39" customWidth="1"/>
+    <col min="7685" max="7685" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7936" width="8.88671875" style="39"/>
+    <col min="7937" max="7937" width="4.44140625" style="39" customWidth="1"/>
+    <col min="7938" max="7938" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="35.88671875" style="39" customWidth="1"/>
+    <col min="7940" max="7940" width="22" style="39" customWidth="1"/>
+    <col min="7941" max="7941" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8192" width="8.88671875" style="39"/>
+    <col min="8193" max="8193" width="4.44140625" style="39" customWidth="1"/>
+    <col min="8194" max="8194" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="35.88671875" style="39" customWidth="1"/>
+    <col min="8196" max="8196" width="22" style="39" customWidth="1"/>
+    <col min="8197" max="8197" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8448" width="8.88671875" style="39"/>
+    <col min="8449" max="8449" width="4.44140625" style="39" customWidth="1"/>
+    <col min="8450" max="8450" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="35.88671875" style="39" customWidth="1"/>
+    <col min="8452" max="8452" width="22" style="39" customWidth="1"/>
+    <col min="8453" max="8453" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8704" width="8.88671875" style="39"/>
+    <col min="8705" max="8705" width="4.44140625" style="39" customWidth="1"/>
+    <col min="8706" max="8706" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="35.88671875" style="39" customWidth="1"/>
+    <col min="8708" max="8708" width="22" style="39" customWidth="1"/>
+    <col min="8709" max="8709" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8960" width="8.88671875" style="39"/>
+    <col min="8961" max="8961" width="4.44140625" style="39" customWidth="1"/>
+    <col min="8962" max="8962" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="35.88671875" style="39" customWidth="1"/>
+    <col min="8964" max="8964" width="22" style="39" customWidth="1"/>
+    <col min="8965" max="8965" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9216" width="8.88671875" style="39"/>
+    <col min="9217" max="9217" width="4.44140625" style="39" customWidth="1"/>
+    <col min="9218" max="9218" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="35.88671875" style="39" customWidth="1"/>
+    <col min="9220" max="9220" width="22" style="39" customWidth="1"/>
+    <col min="9221" max="9221" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9472" width="8.88671875" style="39"/>
+    <col min="9473" max="9473" width="4.44140625" style="39" customWidth="1"/>
+    <col min="9474" max="9474" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="35.88671875" style="39" customWidth="1"/>
+    <col min="9476" max="9476" width="22" style="39" customWidth="1"/>
+    <col min="9477" max="9477" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9728" width="8.88671875" style="39"/>
+    <col min="9729" max="9729" width="4.44140625" style="39" customWidth="1"/>
+    <col min="9730" max="9730" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="35.88671875" style="39" customWidth="1"/>
+    <col min="9732" max="9732" width="22" style="39" customWidth="1"/>
+    <col min="9733" max="9733" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9984" width="8.88671875" style="39"/>
+    <col min="9985" max="9985" width="4.44140625" style="39" customWidth="1"/>
+    <col min="9986" max="9986" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="35.88671875" style="39" customWidth="1"/>
+    <col min="9988" max="9988" width="22" style="39" customWidth="1"/>
+    <col min="9989" max="9989" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10240" width="8.88671875" style="39"/>
+    <col min="10241" max="10241" width="4.44140625" style="39" customWidth="1"/>
+    <col min="10242" max="10242" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="35.88671875" style="39" customWidth="1"/>
+    <col min="10244" max="10244" width="22" style="39" customWidth="1"/>
+    <col min="10245" max="10245" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10496" width="8.88671875" style="39"/>
+    <col min="10497" max="10497" width="4.44140625" style="39" customWidth="1"/>
+    <col min="10498" max="10498" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="35.88671875" style="39" customWidth="1"/>
+    <col min="10500" max="10500" width="22" style="39" customWidth="1"/>
+    <col min="10501" max="10501" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10752" width="8.88671875" style="39"/>
+    <col min="10753" max="10753" width="4.44140625" style="39" customWidth="1"/>
+    <col min="10754" max="10754" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="35.88671875" style="39" customWidth="1"/>
+    <col min="10756" max="10756" width="22" style="39" customWidth="1"/>
+    <col min="10757" max="10757" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11008" width="8.88671875" style="39"/>
+    <col min="11009" max="11009" width="4.44140625" style="39" customWidth="1"/>
+    <col min="11010" max="11010" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="35.88671875" style="39" customWidth="1"/>
+    <col min="11012" max="11012" width="22" style="39" customWidth="1"/>
+    <col min="11013" max="11013" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11264" width="8.88671875" style="39"/>
+    <col min="11265" max="11265" width="4.44140625" style="39" customWidth="1"/>
+    <col min="11266" max="11266" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="35.88671875" style="39" customWidth="1"/>
+    <col min="11268" max="11268" width="22" style="39" customWidth="1"/>
+    <col min="11269" max="11269" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11520" width="8.88671875" style="39"/>
+    <col min="11521" max="11521" width="4.44140625" style="39" customWidth="1"/>
+    <col min="11522" max="11522" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="35.88671875" style="39" customWidth="1"/>
+    <col min="11524" max="11524" width="22" style="39" customWidth="1"/>
+    <col min="11525" max="11525" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11776" width="8.88671875" style="39"/>
+    <col min="11777" max="11777" width="4.44140625" style="39" customWidth="1"/>
+    <col min="11778" max="11778" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="35.88671875" style="39" customWidth="1"/>
+    <col min="11780" max="11780" width="22" style="39" customWidth="1"/>
+    <col min="11781" max="11781" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12032" width="8.88671875" style="39"/>
+    <col min="12033" max="12033" width="4.44140625" style="39" customWidth="1"/>
+    <col min="12034" max="12034" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="35.88671875" style="39" customWidth="1"/>
+    <col min="12036" max="12036" width="22" style="39" customWidth="1"/>
+    <col min="12037" max="12037" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12288" width="8.88671875" style="39"/>
+    <col min="12289" max="12289" width="4.44140625" style="39" customWidth="1"/>
+    <col min="12290" max="12290" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="35.88671875" style="39" customWidth="1"/>
+    <col min="12292" max="12292" width="22" style="39" customWidth="1"/>
+    <col min="12293" max="12293" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12544" width="8.88671875" style="39"/>
+    <col min="12545" max="12545" width="4.44140625" style="39" customWidth="1"/>
+    <col min="12546" max="12546" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="35.88671875" style="39" customWidth="1"/>
+    <col min="12548" max="12548" width="22" style="39" customWidth="1"/>
+    <col min="12549" max="12549" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12800" width="8.88671875" style="39"/>
+    <col min="12801" max="12801" width="4.44140625" style="39" customWidth="1"/>
+    <col min="12802" max="12802" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="35.88671875" style="39" customWidth="1"/>
+    <col min="12804" max="12804" width="22" style="39" customWidth="1"/>
+    <col min="12805" max="12805" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13056" width="8.88671875" style="39"/>
+    <col min="13057" max="13057" width="4.44140625" style="39" customWidth="1"/>
+    <col min="13058" max="13058" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="35.88671875" style="39" customWidth="1"/>
+    <col min="13060" max="13060" width="22" style="39" customWidth="1"/>
+    <col min="13061" max="13061" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13312" width="8.88671875" style="39"/>
+    <col min="13313" max="13313" width="4.44140625" style="39" customWidth="1"/>
+    <col min="13314" max="13314" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="35.88671875" style="39" customWidth="1"/>
+    <col min="13316" max="13316" width="22" style="39" customWidth="1"/>
+    <col min="13317" max="13317" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13568" width="8.88671875" style="39"/>
+    <col min="13569" max="13569" width="4.44140625" style="39" customWidth="1"/>
+    <col min="13570" max="13570" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="35.88671875" style="39" customWidth="1"/>
+    <col min="13572" max="13572" width="22" style="39" customWidth="1"/>
+    <col min="13573" max="13573" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13824" width="8.88671875" style="39"/>
+    <col min="13825" max="13825" width="4.44140625" style="39" customWidth="1"/>
+    <col min="13826" max="13826" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="35.88671875" style="39" customWidth="1"/>
+    <col min="13828" max="13828" width="22" style="39" customWidth="1"/>
+    <col min="13829" max="13829" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14080" width="8.88671875" style="39"/>
+    <col min="14081" max="14081" width="4.44140625" style="39" customWidth="1"/>
+    <col min="14082" max="14082" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="35.88671875" style="39" customWidth="1"/>
+    <col min="14084" max="14084" width="22" style="39" customWidth="1"/>
+    <col min="14085" max="14085" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14336" width="8.88671875" style="39"/>
+    <col min="14337" max="14337" width="4.44140625" style="39" customWidth="1"/>
+    <col min="14338" max="14338" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="35.88671875" style="39" customWidth="1"/>
+    <col min="14340" max="14340" width="22" style="39" customWidth="1"/>
+    <col min="14341" max="14341" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14592" width="8.88671875" style="39"/>
+    <col min="14593" max="14593" width="4.44140625" style="39" customWidth="1"/>
+    <col min="14594" max="14594" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="35.88671875" style="39" customWidth="1"/>
+    <col min="14596" max="14596" width="22" style="39" customWidth="1"/>
+    <col min="14597" max="14597" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14848" width="8.88671875" style="39"/>
+    <col min="14849" max="14849" width="4.44140625" style="39" customWidth="1"/>
+    <col min="14850" max="14850" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="35.88671875" style="39" customWidth="1"/>
+    <col min="14852" max="14852" width="22" style="39" customWidth="1"/>
+    <col min="14853" max="14853" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15104" width="8.88671875" style="39"/>
+    <col min="15105" max="15105" width="4.44140625" style="39" customWidth="1"/>
+    <col min="15106" max="15106" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="35.88671875" style="39" customWidth="1"/>
+    <col min="15108" max="15108" width="22" style="39" customWidth="1"/>
+    <col min="15109" max="15109" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15360" width="8.88671875" style="39"/>
+    <col min="15361" max="15361" width="4.44140625" style="39" customWidth="1"/>
+    <col min="15362" max="15362" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="35.88671875" style="39" customWidth="1"/>
+    <col min="15364" max="15364" width="22" style="39" customWidth="1"/>
+    <col min="15365" max="15365" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15616" width="8.88671875" style="39"/>
+    <col min="15617" max="15617" width="4.44140625" style="39" customWidth="1"/>
+    <col min="15618" max="15618" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="35.88671875" style="39" customWidth="1"/>
+    <col min="15620" max="15620" width="22" style="39" customWidth="1"/>
+    <col min="15621" max="15621" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15872" width="8.88671875" style="39"/>
+    <col min="15873" max="15873" width="4.44140625" style="39" customWidth="1"/>
+    <col min="15874" max="15874" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="35.88671875" style="39" customWidth="1"/>
+    <col min="15876" max="15876" width="22" style="39" customWidth="1"/>
+    <col min="15877" max="15877" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16128" width="8.88671875" style="39"/>
+    <col min="16129" max="16129" width="4.44140625" style="39" customWidth="1"/>
+    <col min="16130" max="16130" width="31.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="35.88671875" style="39" customWidth="1"/>
+    <col min="16132" max="16132" width="22" style="39" customWidth="1"/>
+    <col min="16133" max="16133" width="53.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="28"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="35" t="s">
+    </row>
+    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43">
+        <v>1</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
-        <v>1</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43">
+        <v>2</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
-        <v>2</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43">
+        <v>3</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
-        <v>3</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
+        <v>4</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-    </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
-        <v>4</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43">
+        <v>5</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-    </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
-        <v>5</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="C10" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" s="26" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
+        <v>6</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-    </row>
-    <row r="11" spans="1:5" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
-        <v>6</v>
-      </c>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="50" t="s">
+    </row>
+    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43">
+        <v>7</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
-        <v>7</v>
-      </c>
-      <c r="B12" s="46" t="s">
+      <c r="C12" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49" t="s">
+    </row>
+    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43">
+        <v>8</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
-        <v>8</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="1:5" s="26" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>9</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-    </row>
-    <row r="14" spans="1:5" s="27" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
-        <v>9</v>
-      </c>
-      <c r="B14" s="46" t="s">
+      <c r="C14" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
+        <v>10</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-    </row>
-    <row r="15" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
-        <v>10</v>
-      </c>
-      <c r="B15" s="46" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="48" t="s">
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="43">
+        <v>11</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="53"/>
-    </row>
-    <row r="16" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
-        <v>11</v>
-      </c>
-      <c r="B16" s="46" t="s">
+      <c r="C16" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="43">
+        <v>12</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="53"/>
-    </row>
-    <row r="17" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
-        <v>12</v>
-      </c>
-      <c r="B17" s="46" t="s">
+      <c r="C17" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43">
+        <v>13</v>
+      </c>
+      <c r="B18" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
-        <v>13</v>
-      </c>
-      <c r="B18" s="46" t="s">
+      <c r="C18" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43">
+        <v>14</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-    </row>
-    <row r="19" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45">
-        <v>14</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="38" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43">
+        <v>15</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-    </row>
-    <row r="20" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
-        <v>15</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43">
+        <v>16</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-    </row>
-    <row r="21" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
-        <v>16</v>
-      </c>
-      <c r="B21" s="36" t="s">
+      <c r="C21" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="G21" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="G21" s="37" t="s">
+    </row>
+    <row r="22" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43">
+        <v>17</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
-        <v>17</v>
-      </c>
-      <c r="B22" s="38" t="s">
+      <c r="C22" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="H22" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="H22" s="37" t="s">
+    </row>
+    <row r="23" spans="1:8" s="26" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="43">
+        <v>18</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="37" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
-        <v>18</v>
-      </c>
-      <c r="B23" s="46" t="s">
+      <c r="C23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+    </row>
+    <row r="24" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43">
+        <v>19</v>
+      </c>
+      <c r="B24" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-    </row>
-    <row r="24" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
-        <v>19</v>
-      </c>
-      <c r="B24" s="46" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52">
+        <v>20</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="49"/>
-    </row>
-    <row r="25" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55">
-        <v>20</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58" t="s">
+    </row>
+    <row r="26" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52">
+        <v>21</v>
+      </c>
+      <c r="B26" s="53" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55">
-        <v>21</v>
-      </c>
-      <c r="B26" s="56" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="59"/>
-    </row>
-    <row r="27" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-    </row>
-    <row r="33" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-    </row>
-    <row r="34" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-    </row>
-    <row r="35" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-    </row>
-    <row r="36" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-    </row>
-    <row r="37" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-    </row>
-    <row r="38" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-    </row>
-    <row r="39" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-    </row>
-    <row r="40" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-    </row>
-    <row r="41" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-    </row>
-    <row r="42" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-    </row>
-    <row r="43" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="40"/>
-    </row>
-    <row r="44" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-    </row>
-    <row r="45" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-    </row>
-    <row r="46" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="40"/>
-    </row>
-    <row r="47" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-    </row>
-    <row r="48" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-    </row>
-    <row r="49" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="40"/>
-    </row>
-    <row r="50" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-    </row>
-    <row r="51" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-    </row>
-    <row r="52" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="40"/>
-    </row>
-    <row r="53" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-    </row>
-    <row r="54" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-    </row>
-    <row r="55" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="40"/>
-    </row>
-    <row r="56" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="40"/>
-    </row>
-    <row r="57" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-    </row>
-    <row r="58" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="40"/>
-    </row>
-    <row r="59" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-    </row>
-    <row r="60" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
-    </row>
-    <row r="61" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="40"/>
-    </row>
-    <row r="62" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-    </row>
-    <row r="63" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="40"/>
-    </row>
-    <row r="64" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="40"/>
-    </row>
-    <row r="65" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-    </row>
-    <row r="66" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="40"/>
-    </row>
-    <row r="67" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="40"/>
-    </row>
-    <row r="68" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-    </row>
-    <row r="69" spans="2:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="40"/>
+      <c r="F26" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
